--- a/02.Signals/validate_202402.xlsx
+++ b/02.Signals/validate_202402.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -660,16 +660,16 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="E9" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" t="n">
         <v>309</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +707,19 @@
         <v>1910</v>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="E11" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         <v>1910</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
         <v>485</v>
@@ -741,91 +741,91 @@
         <v>1425</v>
       </c>
       <c r="F12" t="n">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DelDRC_q</t>
+          <t>Mom_m02_m11_pos</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1910</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
-        <v>607</v>
+        <v>1147</v>
       </c>
       <c r="E13" t="n">
-        <v>1303</v>
+        <v>763</v>
       </c>
       <c r="F13" t="n">
-        <v>917</v>
+        <v>763</v>
       </c>
       <c r="G13" t="n">
-        <v>386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mom_m02_m11_pos</t>
+          <t>DelDRC_q</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1910</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
-        <v>1147</v>
+        <v>607</v>
       </c>
       <c r="E14" t="n">
-        <v>763</v>
+        <v>1303</v>
       </c>
       <c r="F14" t="n">
-        <v>763</v>
+        <v>917</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MomFirmAge</t>
+          <t>OffSeason_0610</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1910</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
-        <v>393</v>
+        <v>1583</v>
       </c>
       <c r="E15" t="n">
-        <v>1517</v>
+        <v>327</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1514</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_0610</t>
+          <t>ChInv_q</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -835,41 +835,41 @@
         <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>1582</v>
+        <v>775</v>
       </c>
       <c r="E16" t="n">
-        <v>328</v>
+        <v>1135</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="G16" t="n">
-        <v>325</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ChInv_q</t>
+          <t>MomFirmAge</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1910</v>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>775</v>
+        <v>431</v>
       </c>
       <c r="E17" t="n">
-        <v>1135</v>
+        <v>1479</v>
       </c>
       <c r="F17" t="n">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>826</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         <v>1910</v>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="n">
         <v>1874</v>
@@ -907,7 +907,7 @@
         <v>1910</v>
       </c>
       <c r="C19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
         <v>1881</v>
@@ -925,7 +925,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>EntMult_q</t>
+          <t>CF_q</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -935,41 +935,41 @@
         <v>77</v>
       </c>
       <c r="D20" t="n">
-        <v>1046</v>
+        <v>916</v>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>994</v>
       </c>
       <c r="F20" t="n">
         <v>309</v>
       </c>
       <c r="G20" t="n">
-        <v>555</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CF_q</t>
+          <t>EntMult_q</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1910</v>
       </c>
       <c r="C21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>916</v>
+        <v>1046</v>
       </c>
       <c r="E21" t="n">
-        <v>994</v>
+        <v>864</v>
       </c>
       <c r="F21" t="n">
         <v>309</v>
       </c>
       <c r="G21" t="n">
-        <v>685</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         <v>1910</v>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" t="n">
         <v>1139</v>
@@ -1000,76 +1000,76 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Season_0610</t>
+          <t>OffSeason_1620</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1910</v>
       </c>
       <c r="C23" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" t="n">
-        <v>1529</v>
+        <v>1152</v>
       </c>
       <c r="E23" t="n">
-        <v>381</v>
+        <v>758</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>378</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Season_1115</t>
+          <t>Season_0610</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1910</v>
       </c>
       <c r="C24" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" t="n">
-        <v>1270</v>
+        <v>1530</v>
       </c>
       <c r="E24" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>637</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_1620</t>
+          <t>Season_1115</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1910</v>
       </c>
       <c r="C25" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="n">
-        <v>1151</v>
+        <v>1271</v>
       </c>
       <c r="E25" t="n">
-        <v>759</v>
+        <v>639</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>756</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26">
@@ -1082,19 +1082,19 @@
         <v>1910</v>
       </c>
       <c r="C26" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="n">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E26" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         <v>1910</v>
       </c>
       <c r="C27" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D27" t="n">
         <v>1141</v>
@@ -1135,16 +1135,16 @@
         <v>125</v>
       </c>
       <c r="D28" t="n">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1232,19 +1232,19 @@
         <v>1910</v>
       </c>
       <c r="C32" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D32" t="n">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E32" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         <v>1910</v>
       </c>
       <c r="C33" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="n">
         <v>1881</v>
@@ -1332,19 +1332,19 @@
         <v>1910</v>
       </c>
       <c r="C36" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" t="n">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="E36" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F36" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G36" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -1357,19 +1357,19 @@
         <v>1910</v>
       </c>
       <c r="C37" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D37" t="n">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E37" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F37" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G37" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -1410,16 +1410,16 @@
         <v>324</v>
       </c>
       <c r="D39" t="n">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E39" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F39" t="n">
         <v>309</v>
       </c>
       <c r="G39" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -1768,19 +1768,19 @@
         <v>729</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F11" t="n">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12">
@@ -1798,19 +1798,19 @@
         <v>1141</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>944</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13">
@@ -1831,16 +1831,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1978,7 +1978,7 @@
         <v>1141</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>483</v>
@@ -1987,10 +1987,10 @@
         <v>658</v>
       </c>
       <c r="G18" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2158,7 +2158,7 @@
         <v>1141</v>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>1126</v>
@@ -2308,19 +2308,19 @@
         <v>729</v>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F29" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -2341,16 +2341,16 @@
         <v>91</v>
       </c>
       <c r="E30" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F30" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -2371,16 +2371,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2488,19 +2488,19 @@
         <v>729</v>
       </c>
       <c r="D35" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F35" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H35" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -2527,10 +2527,10 @@
         <v>123</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2698,7 +2698,7 @@
         <v>1141</v>
       </c>
       <c r="D42" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E42" t="n">
         <v>1135</v>
@@ -2878,7 +2878,7 @@
         <v>1141</v>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E48" t="n">
         <v>1141</v>
@@ -3028,7 +3028,7 @@
         <v>729</v>
       </c>
       <c r="D53" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E53" t="n">
         <v>717</v>
@@ -3058,19 +3058,19 @@
         <v>1141</v>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" t="n">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -3208,7 +3208,7 @@
         <v>729</v>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
         <v>721</v>
@@ -3238,7 +3238,7 @@
         <v>1141</v>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E60" t="n">
         <v>1126</v>
@@ -3391,16 +3391,16 @@
         <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F65" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66">
@@ -3418,7 +3418,7 @@
         <v>1141</v>
       </c>
       <c r="D66" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E66" t="n">
         <v>964</v>
@@ -3568,19 +3568,19 @@
         <v>729</v>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F71" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72">
@@ -3598,7 +3598,7 @@
         <v>1141</v>
       </c>
       <c r="D72" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E72" t="n">
         <v>992</v>
@@ -3748,7 +3748,7 @@
         <v>729</v>
       </c>
       <c r="D77" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" t="n">
         <v>444</v>
@@ -3781,16 +3781,16 @@
         <v>48</v>
       </c>
       <c r="E78" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F78" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79">
@@ -3931,16 +3931,16 @@
         <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F83" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84">
@@ -3958,19 +3958,19 @@
         <v>1141</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E84" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F84" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85">
@@ -4138,7 +4138,7 @@
         <v>1141</v>
       </c>
       <c r="D90" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E90" t="n">
         <v>720</v>
@@ -4288,19 +4288,19 @@
         <v>729</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F95" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96">
@@ -4318,7 +4318,7 @@
         <v>1141</v>
       </c>
       <c r="D96" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E96" t="n">
         <v>728</v>
@@ -4378,19 +4378,19 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4468,7 +4468,7 @@
         <v>729</v>
       </c>
       <c r="D101" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E101" t="n">
         <v>729</v>
@@ -4498,7 +4498,7 @@
         <v>1141</v>
       </c>
       <c r="D102" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E102" t="n">
         <v>1141</v>
@@ -4648,7 +4648,7 @@
         <v>729</v>
       </c>
       <c r="D107" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E107" t="n">
         <v>719</v>
@@ -4678,7 +4678,7 @@
         <v>1141</v>
       </c>
       <c r="D108" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E108" t="n">
         <v>1121</v>
@@ -4831,16 +4831,16 @@
         <v>27</v>
       </c>
       <c r="E113" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F113" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114">
@@ -4861,16 +4861,16 @@
         <v>18</v>
       </c>
       <c r="E114" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F114" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -4888,7 +4888,7 @@
         <v>26</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>23</v>
@@ -5191,16 +5191,16 @@
         <v>10</v>
       </c>
       <c r="E125" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F125" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G125" t="n">
         <v>114</v>
       </c>
       <c r="H125" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -5938,7 +5938,7 @@
         <v>1141</v>
       </c>
       <c r="D150" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E150" t="n">
         <v>912</v>
@@ -6091,16 +6091,16 @@
         <v>79</v>
       </c>
       <c r="E155" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F155" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G155" t="n">
         <v>114</v>
       </c>
       <c r="H155" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
         <v>305</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>305</v>
@@ -8579,7 +8579,7 @@
         <v>250</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>249</v>
@@ -8792,16 +8792,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -8819,19 +8819,19 @@
         <v>230</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -8852,16 +8852,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -8909,19 +8909,19 @@
         <v>305</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F19" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
@@ -8939,19 +8939,19 @@
         <v>250</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F20" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -8969,19 +8969,19 @@
         <v>322</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F21" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22">
@@ -9002,16 +9002,16 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F22" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -9032,16 +9032,16 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -9059,19 +9059,19 @@
         <v>129</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -9092,16 +9092,16 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -9269,7 +9269,7 @@
         <v>305</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
         <v>74</v>
@@ -9338,10 +9338,10 @@
         <v>268</v>
       </c>
       <c r="G33" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -9539,7 +9539,7 @@
         <v>230</v>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
         <v>226</v>
@@ -9689,7 +9689,7 @@
         <v>322</v>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" t="n">
         <v>318</v>
@@ -9719,7 +9719,7 @@
         <v>253</v>
       </c>
       <c r="D46" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" t="n">
         <v>252</v>
@@ -9878,10 +9878,10 @@
         <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -9989,16 +9989,16 @@
         <v>305</v>
       </c>
       <c r="D55" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F55" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H55" t="n">
         <v>9</v>
@@ -10022,16 +10022,16 @@
         <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F56" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
         <v>31</v>
       </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -10052,16 +10052,16 @@
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F57" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="n">
         <v>26</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -10082,13 +10082,13 @@
         <v>35</v>
       </c>
       <c r="E58" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F58" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58" t="n">
         <v>17</v>
@@ -10148,10 +10148,10 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -10238,10 +10238,10 @@
         <v>19</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -10349,7 +10349,7 @@
         <v>305</v>
       </c>
       <c r="D67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
         <v>271</v>
@@ -10358,10 +10358,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -10379,19 +10379,19 @@
         <v>250</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F68" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68" t="n">
         <v>31</v>
       </c>
       <c r="H68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -10439,7 +10439,7 @@
         <v>253</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
         <v>196</v>
@@ -10448,10 +10448,10 @@
         <v>57</v>
       </c>
       <c r="G70" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -10499,7 +10499,7 @@
         <v>129</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
         <v>124</v>
@@ -10508,10 +10508,10 @@
         <v>5</v>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
         <v>3</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -10589,7 +10589,7 @@
         <v>92</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>38</v>
@@ -10619,7 +10619,7 @@
         <v>230</v>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
         <v>149</v>
@@ -10709,7 +10709,7 @@
         <v>305</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" t="n">
         <v>188</v>
@@ -10769,7 +10769,7 @@
         <v>322</v>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81" t="n">
         <v>222</v>
@@ -10859,7 +10859,7 @@
         <v>129</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>108</v>
@@ -11009,7 +11009,7 @@
         <v>95</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>62</v>
@@ -11219,7 +11219,7 @@
         <v>129</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>109</v>
@@ -11309,7 +11309,7 @@
         <v>92</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
         <v>88</v>
@@ -11369,19 +11369,19 @@
         <v>95</v>
       </c>
       <c r="D101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E101" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -11429,7 +11429,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="n">
         <v>302</v>
@@ -11519,7 +11519,7 @@
         <v>253</v>
       </c>
       <c r="D106" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E106" t="n">
         <v>251</v>
@@ -11699,7 +11699,7 @@
         <v>230</v>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>226</v>
@@ -11789,7 +11789,7 @@
         <v>305</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="n">
         <v>304</v>
@@ -11819,7 +11819,7 @@
         <v>250</v>
       </c>
       <c r="D116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" t="n">
         <v>244</v>
@@ -11879,7 +11879,7 @@
         <v>253</v>
       </c>
       <c r="D118" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" t="n">
         <v>252</v>
@@ -11939,7 +11939,7 @@
         <v>129</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" t="n">
         <v>128</v>
@@ -12119,7 +12119,7 @@
         <v>83</v>
       </c>
       <c r="D126" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
         <v>66</v>
@@ -12152,16 +12152,16 @@
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
@@ -12299,7 +12299,7 @@
         <v>129</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
         <v>121</v>
@@ -12482,16 +12482,16 @@
         <v>19</v>
       </c>
       <c r="E138" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -12539,7 +12539,7 @@
         <v>250</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E140" t="n">
         <v>183</v>
@@ -12569,7 +12569,7 @@
         <v>322</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" t="n">
         <v>275</v>
@@ -12839,7 +12839,7 @@
         <v>83</v>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
         <v>54</v>
@@ -12872,16 +12872,16 @@
         <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F151" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
@@ -12899,7 +12899,7 @@
         <v>250</v>
       </c>
       <c r="D152" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
         <v>130</v>
@@ -12959,7 +12959,7 @@
         <v>253</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
         <v>139</v>
@@ -13109,7 +13109,7 @@
         <v>92</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>51</v>
@@ -13139,7 +13139,7 @@
         <v>230</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
         <v>162</v>
@@ -13199,7 +13199,7 @@
         <v>83</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E162" t="n">
         <v>55</v>
@@ -13229,19 +13229,19 @@
         <v>305</v>
       </c>
       <c r="D163" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E163" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F163" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164">
@@ -13259,19 +13259,19 @@
         <v>250</v>
       </c>
       <c r="D164" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F164" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165">
@@ -13289,7 +13289,7 @@
         <v>322</v>
       </c>
       <c r="D165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="n">
         <v>243</v>
@@ -13319,7 +13319,7 @@
         <v>253</v>
       </c>
       <c r="D166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E166" t="n">
         <v>142</v>
@@ -13379,7 +13379,7 @@
         <v>129</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E168" t="n">
         <v>100</v>
@@ -13649,7 +13649,7 @@
         <v>322</v>
       </c>
       <c r="D177" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
         <v>216</v>
@@ -13829,7 +13829,7 @@
         <v>92</v>
       </c>
       <c r="D183" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E183" t="n">
         <v>39</v>
@@ -13859,7 +13859,7 @@
         <v>230</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
         <v>138</v>
@@ -13949,19 +13949,19 @@
         <v>305</v>
       </c>
       <c r="D187" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F187" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188">
@@ -14009,7 +14009,7 @@
         <v>322</v>
       </c>
       <c r="D189" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E189" t="n">
         <v>219</v>
@@ -14039,7 +14039,7 @@
         <v>253</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="n">
         <v>121</v>
@@ -14099,7 +14099,7 @@
         <v>129</v>
       </c>
       <c r="D192" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E192" t="n">
         <v>79</v>
@@ -14162,16 +14162,16 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -14339,19 +14339,19 @@
         <v>250</v>
       </c>
       <c r="D200" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E200" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -14399,7 +14399,7 @@
         <v>253</v>
       </c>
       <c r="D202" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E202" t="n">
         <v>253</v>
@@ -14459,7 +14459,7 @@
         <v>129</v>
       </c>
       <c r="D204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
         <v>129</v>
@@ -14489,7 +14489,7 @@
         <v>57</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
         <v>57</v>
@@ -14789,7 +14789,7 @@
         <v>91</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
         <v>89</v>
@@ -14819,7 +14819,7 @@
         <v>129</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
         <v>128</v>
@@ -14942,16 +14942,16 @@
         <v>6</v>
       </c>
       <c r="E220" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F220" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
@@ -15002,16 +15002,16 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F222" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
@@ -15029,19 +15029,19 @@
         <v>305</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F223" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224">
@@ -15059,7 +15059,7 @@
         <v>250</v>
       </c>
       <c r="D224" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E224" t="n">
         <v>219</v>
@@ -15092,16 +15092,16 @@
         <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F225" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
@@ -15692,16 +15692,16 @@
         <v>2</v>
       </c>
       <c r="E245" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -17369,7 +17369,7 @@
         <v>57</v>
       </c>
       <c r="D301" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E301" t="n">
         <v>48</v>
@@ -17492,16 +17492,16 @@
         <v>14</v>
       </c>
       <c r="E305" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -17519,7 +17519,7 @@
         <v>83</v>
       </c>
       <c r="D306" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E306" t="n">
         <v>81</v>
@@ -17609,7 +17609,7 @@
         <v>322</v>
       </c>
       <c r="D309" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E309" t="n">
         <v>302</v>
@@ -22116,12 +22116,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -22563,16 +22563,16 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="n">
         <v>45</v>
       </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -22593,16 +22593,16 @@
         <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F17" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G17" t="n">
         <v>193</v>
       </c>
       <c r="H17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -23310,7 +23310,7 @@
         <v>853</v>
       </c>
       <c r="D41" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="n">
         <v>442</v>
@@ -25200,19 +25200,19 @@
         <v>637</v>
       </c>
       <c r="D104" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F104" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
@@ -25470,7 +25470,7 @@
         <v>853</v>
       </c>
       <c r="D113" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E113" t="n">
         <v>831</v>
@@ -25503,16 +25503,16 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F114" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115">
@@ -25533,16 +25533,16 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F115" t="n">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116">
@@ -25563,16 +25563,16 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
@@ -25593,16 +25593,16 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
@@ -25623,16 +25623,16 @@
         <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F118" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
@@ -25653,16 +25653,16 @@
         <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F119" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
@@ -25680,19 +25680,19 @@
         <v>637</v>
       </c>
       <c r="D120" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E120" t="n">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F120" t="n">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121">
@@ -25710,19 +25710,19 @@
         <v>853</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F121" t="n">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="122">
@@ -25770,7 +25770,7 @@
         <v>350</v>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
         <v>346</v>
@@ -25890,7 +25890,7 @@
         <v>200</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
         <v>199</v>
@@ -25920,7 +25920,7 @@
         <v>637</v>
       </c>
       <c r="D128" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E128" t="n">
         <v>624</v>
@@ -25950,7 +25950,7 @@
         <v>853</v>
       </c>
       <c r="D129" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E129" t="n">
         <v>835</v>
@@ -25980,7 +25980,7 @@
         <v>207</v>
       </c>
       <c r="D130" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E130" t="n">
         <v>195</v>
@@ -26010,7 +26010,7 @@
         <v>350</v>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E131" t="n">
         <v>335</v>
@@ -26070,7 +26070,7 @@
         <v>141</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E133" t="n">
         <v>139</v>
@@ -26130,7 +26130,7 @@
         <v>200</v>
       </c>
       <c r="D135" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135" t="n">
         <v>188</v>
@@ -26160,19 +26160,19 @@
         <v>637</v>
       </c>
       <c r="D136" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E136" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F136" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G136" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H136" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137">
@@ -26199,10 +26199,10 @@
         <v>93</v>
       </c>
       <c r="G137" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
@@ -26250,7 +26250,7 @@
         <v>350</v>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" t="n">
         <v>339</v>
@@ -26370,7 +26370,7 @@
         <v>200</v>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" t="n">
         <v>192</v>
@@ -26403,16 +26403,16 @@
         <v>46</v>
       </c>
       <c r="E144" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F144" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G144" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H144" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145">
@@ -26433,16 +26433,16 @@
         <v>92</v>
       </c>
       <c r="E145" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F145" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G145" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H145" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
@@ -26970,7 +26970,7 @@
         <v>350</v>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="n">
         <v>197</v>
@@ -27030,7 +27030,7 @@
         <v>141</v>
       </c>
       <c r="D165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E165" t="n">
         <v>99</v>
@@ -27159,10 +27159,10 @@
         <v>688</v>
       </c>
       <c r="G169" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -27180,7 +27180,7 @@
         <v>207</v>
       </c>
       <c r="D170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
         <v>105</v>
@@ -27300,7 +27300,7 @@
         <v>150</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174" t="n">
         <v>84</v>
@@ -27360,7 +27360,7 @@
         <v>637</v>
       </c>
       <c r="D176" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E176" t="n">
         <v>276</v>
@@ -27390,7 +27390,7 @@
         <v>853</v>
       </c>
       <c r="D177" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E177" t="n">
         <v>573</v>
@@ -27450,7 +27450,7 @@
         <v>350</v>
       </c>
       <c r="D179" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E179" t="n">
         <v>269</v>
@@ -27570,7 +27570,7 @@
         <v>200</v>
       </c>
       <c r="D183" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
         <v>148</v>
@@ -27600,7 +27600,7 @@
         <v>637</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
         <v>276</v>
@@ -27630,7 +27630,7 @@
         <v>853</v>
       </c>
       <c r="D185" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E185" t="n">
         <v>577</v>
@@ -27660,7 +27660,7 @@
         <v>207</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>206</v>
@@ -27780,7 +27780,7 @@
         <v>150</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>149</v>
@@ -27840,7 +27840,7 @@
         <v>637</v>
       </c>
       <c r="D192" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E192" t="n">
         <v>624</v>
@@ -27870,7 +27870,7 @@
         <v>853</v>
       </c>
       <c r="D193" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E193" t="n">
         <v>835</v>
@@ -28080,19 +28080,19 @@
         <v>637</v>
       </c>
       <c r="D200" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F200" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201">
@@ -28110,7 +28110,7 @@
         <v>853</v>
       </c>
       <c r="D201" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E201" t="n">
         <v>746</v>
@@ -28140,7 +28140,7 @@
         <v>207</v>
       </c>
       <c r="D202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E202" t="n">
         <v>165</v>
@@ -28170,7 +28170,7 @@
         <v>350</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" t="n">
         <v>312</v>
@@ -28200,7 +28200,7 @@
         <v>82</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
         <v>75</v>
@@ -28260,7 +28260,7 @@
         <v>150</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206" t="n">
         <v>109</v>
@@ -28320,19 +28320,19 @@
         <v>637</v>
       </c>
       <c r="D208" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E208" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F208" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209">
@@ -28350,19 +28350,19 @@
         <v>853</v>
       </c>
       <c r="D209" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E209" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
       </c>
       <c r="H209" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210">
@@ -28380,7 +28380,7 @@
         <v>207</v>
       </c>
       <c r="D210" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E210" t="n">
         <v>144</v>
@@ -28410,7 +28410,7 @@
         <v>350</v>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="n">
         <v>291</v>
@@ -28440,7 +28440,7 @@
         <v>82</v>
       </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E212" t="n">
         <v>66</v>
@@ -28500,7 +28500,7 @@
         <v>150</v>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E214" t="n">
         <v>93</v>
@@ -28530,7 +28530,7 @@
         <v>200</v>
       </c>
       <c r="D215" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E215" t="n">
         <v>164</v>
@@ -28590,19 +28590,19 @@
         <v>853</v>
       </c>
       <c r="D217" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E217" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F217" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
       </c>
       <c r="H217" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218">
@@ -29130,7 +29130,7 @@
         <v>350</v>
       </c>
       <c r="D235" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E235" t="n">
         <v>349</v>
@@ -29250,7 +29250,7 @@
         <v>200</v>
       </c>
       <c r="D239" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E239" t="n">
         <v>199</v>
@@ -29280,19 +29280,19 @@
         <v>637</v>
       </c>
       <c r="D240" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E240" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -29310,19 +29310,19 @@
         <v>853</v>
       </c>
       <c r="D241" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E241" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -29370,7 +29370,7 @@
         <v>350</v>
       </c>
       <c r="D243" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E243" t="n">
         <v>344</v>
@@ -29490,7 +29490,7 @@
         <v>200</v>
       </c>
       <c r="D247" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E247" t="n">
         <v>197</v>
@@ -29520,7 +29520,7 @@
         <v>637</v>
       </c>
       <c r="D248" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E248" t="n">
         <v>623</v>
@@ -29550,19 +29550,19 @@
         <v>853</v>
       </c>
       <c r="D249" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E249" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F249" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
       </c>
       <c r="H249" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250">
@@ -29610,7 +29610,7 @@
         <v>350</v>
       </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
         <v>330</v>
@@ -29700,7 +29700,7 @@
         <v>150</v>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E254" t="n">
         <v>129</v>
@@ -29760,7 +29760,7 @@
         <v>637</v>
       </c>
       <c r="D256" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E256" t="n">
         <v>394</v>
@@ -29790,19 +29790,19 @@
         <v>853</v>
       </c>
       <c r="D257" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E257" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F257" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
       </c>
       <c r="H257" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258">
@@ -30000,7 +30000,7 @@
         <v>637</v>
       </c>
       <c r="D264" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E264" t="n">
         <v>270</v>
@@ -30033,16 +30033,16 @@
         <v>44</v>
       </c>
       <c r="E265" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F265" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
       </c>
       <c r="H265" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266">
@@ -30240,7 +30240,7 @@
         <v>637</v>
       </c>
       <c r="D272" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E272" t="n">
         <v>230</v>
@@ -30780,7 +30780,7 @@
         <v>207</v>
       </c>
       <c r="D290" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E290" t="n">
         <v>183</v>
@@ -30810,7 +30810,7 @@
         <v>350</v>
       </c>
       <c r="D291" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E291" t="n">
         <v>268</v>
@@ -30840,7 +30840,7 @@
         <v>82</v>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E292" t="n">
         <v>73</v>
@@ -30870,7 +30870,7 @@
         <v>141</v>
       </c>
       <c r="D293" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E293" t="n">
         <v>105</v>
@@ -30963,16 +30963,16 @@
         <v>68</v>
       </c>
       <c r="E296" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F296" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G296" t="n">
         <v>45</v>
       </c>
       <c r="H296" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297">
@@ -30990,19 +30990,19 @@
         <v>853</v>
       </c>
       <c r="D297" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E297" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F297" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G297" t="n">
         <v>193</v>
       </c>
       <c r="H297" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="298">
@@ -31287,12 +31287,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -31381,7 +31381,7 @@
         <v>1797</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>416</v>
@@ -31506,7 +31506,7 @@
         <v>1797</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>341</v>
@@ -31524,51 +31524,51 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>tang_q</t>
+          <t>Mom_m02_m11</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1797</v>
       </c>
       <c r="C11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="E11" t="n">
-        <v>1440</v>
+        <v>1384</v>
       </c>
       <c r="F11" t="n">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="G11" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mom_m02_m11</t>
+          <t>tang_q</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1797</v>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="E12" t="n">
-        <v>1384</v>
+        <v>1440</v>
       </c>
       <c r="F12" t="n">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -31659,16 +31659,16 @@
         <v>77</v>
       </c>
       <c r="D16" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E16" t="n">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F16" t="n">
         <v>334</v>
       </c>
       <c r="G16" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -31731,19 +31731,19 @@
         <v>1797</v>
       </c>
       <c r="C19" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="E19" t="n">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>1442</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="20">
@@ -31774,51 +31774,51 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_1620</t>
+          <t>Season_1620</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1797</v>
       </c>
       <c r="C21" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="E21" t="n">
-        <v>1014</v>
+        <v>1031</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>1005</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Season_1620</t>
+          <t>OffSeason_1620</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1797</v>
       </c>
       <c r="C22" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="E22" t="n">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23">
@@ -31849,51 +31849,51 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Season_1115</t>
+          <t>MomResiduals12m</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1797</v>
       </c>
       <c r="C24" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>1373</v>
       </c>
       <c r="E24" t="n">
-        <v>901</v>
+        <v>424</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="G24" t="n">
-        <v>892</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals12m</t>
+          <t>Season_1115</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1797</v>
       </c>
       <c r="C25" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" t="n">
-        <v>1371</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
-        <v>426</v>
+        <v>901</v>
       </c>
       <c r="F25" t="n">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>151</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26">
@@ -31924,51 +31924,51 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals6m</t>
+          <t>OffSeason_1115</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1797</v>
       </c>
       <c r="C27" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="n">
-        <v>1392</v>
+        <v>942</v>
       </c>
       <c r="E27" t="n">
-        <v>405</v>
+        <v>855</v>
       </c>
       <c r="F27" t="n">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>130</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_1115</t>
+          <t>MomResiduals6m</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1797</v>
       </c>
       <c r="C28" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D28" t="n">
-        <v>936</v>
+        <v>1399</v>
       </c>
       <c r="E28" t="n">
-        <v>861</v>
+        <v>398</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="G28" t="n">
-        <v>852</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -31981,19 +31981,19 @@
         <v>1797</v>
       </c>
       <c r="C29" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D29" t="n">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="E29" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F29" t="n">
         <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30">
@@ -32006,19 +32006,19 @@
         <v>1797</v>
       </c>
       <c r="C30" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -32031,19 +32031,19 @@
         <v>1797</v>
       </c>
       <c r="C31" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D31" t="n">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="E31" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" t="n">
         <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -32056,19 +32056,19 @@
         <v>1797</v>
       </c>
       <c r="C32" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D32" t="n">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E32" t="n">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F32" t="n">
         <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33">
@@ -32084,16 +32084,16 @@
         <v>242</v>
       </c>
       <c r="D33" t="n">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -32109,16 +32109,16 @@
         <v>256</v>
       </c>
       <c r="D34" t="n">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E34" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F34" t="n">
         <v>334</v>
       </c>
       <c r="G34" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -32134,16 +32134,16 @@
         <v>263</v>
       </c>
       <c r="D35" t="n">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E35" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F35" t="n">
         <v>334</v>
       </c>
       <c r="G35" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -32156,19 +32156,19 @@
         <v>1797</v>
       </c>
       <c r="C36" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D36" t="n">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="E36" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F36" t="n">
         <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -32181,19 +32181,19 @@
         <v>1797</v>
       </c>
       <c r="C37" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D37" t="n">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" t="n">
         <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -32206,19 +32206,19 @@
         <v>1797</v>
       </c>
       <c r="C38" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D38" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="E38" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
         <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -32298,12 +32298,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -32352,7 +32352,7 @@
         <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>107</v>
@@ -32382,7 +32382,7 @@
         <v>825</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
         <v>825</v>
@@ -32442,7 +32442,7 @@
         <v>542</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>542</v>
@@ -32532,19 +32532,19 @@
         <v>825</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F9" t="n">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10">
@@ -32565,16 +32565,16 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F10" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -32592,19 +32592,19 @@
         <v>542</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
@@ -32802,7 +32802,7 @@
         <v>107</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>107</v>
@@ -32862,7 +32862,7 @@
         <v>309</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>304</v>
@@ -32892,19 +32892,19 @@
         <v>542</v>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -32922,7 +32922,7 @@
         <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -32952,7 +32952,7 @@
         <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -32982,19 +32982,19 @@
         <v>825</v>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E24" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F24" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G24" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H24" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -33015,13 +33015,13 @@
         <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
         <v>35</v>
@@ -33045,16 +33045,16 @@
         <v>29</v>
       </c>
       <c r="E26" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F26" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -33132,19 +33132,19 @@
         <v>825</v>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F29" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H29" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -33165,13 +33165,13 @@
         <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="n">
         <v>40</v>
@@ -33201,10 +33201,10 @@
         <v>115</v>
       </c>
       <c r="G31" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -33312,7 +33312,7 @@
         <v>309</v>
       </c>
       <c r="D35" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E35" t="n">
         <v>306</v>
@@ -33462,7 +33462,7 @@
         <v>309</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>309</v>
@@ -33585,16 +33585,16 @@
         <v>86</v>
       </c>
       <c r="E44" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -33642,19 +33642,19 @@
         <v>542</v>
       </c>
       <c r="D46" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E46" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F46" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -33702,7 +33702,7 @@
         <v>107</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
         <v>107</v>
@@ -33732,7 +33732,7 @@
         <v>825</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" t="n">
         <v>812</v>
@@ -33762,7 +33762,7 @@
         <v>309</v>
       </c>
       <c r="D50" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" t="n">
         <v>304</v>
@@ -33792,19 +33792,19 @@
         <v>542</v>
       </c>
       <c r="D51" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -33852,7 +33852,7 @@
         <v>107</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="n">
         <v>95</v>
@@ -33885,16 +33885,16 @@
         <v>85</v>
       </c>
       <c r="E54" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55">
@@ -33942,19 +33942,19 @@
         <v>542</v>
       </c>
       <c r="D56" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E56" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F56" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
@@ -34002,7 +34002,7 @@
         <v>107</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
         <v>98</v>
@@ -34032,19 +34032,19 @@
         <v>825</v>
       </c>
       <c r="D59" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E59" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60">
@@ -34062,7 +34062,7 @@
         <v>309</v>
       </c>
       <c r="D60" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E60" t="n">
         <v>219</v>
@@ -34092,19 +34092,19 @@
         <v>542</v>
       </c>
       <c r="D61" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E61" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F61" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
@@ -34182,7 +34182,7 @@
         <v>825</v>
       </c>
       <c r="D64" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" t="n">
         <v>399</v>
@@ -34242,7 +34242,7 @@
         <v>542</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E66" t="n">
         <v>267</v>
@@ -34332,19 +34332,19 @@
         <v>825</v>
       </c>
       <c r="D69" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E69" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F69" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70">
@@ -34362,7 +34362,7 @@
         <v>309</v>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="n">
         <v>156</v>
@@ -34392,19 +34392,19 @@
         <v>542</v>
       </c>
       <c r="D71" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E71" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F71" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72">
@@ -34542,19 +34542,19 @@
         <v>542</v>
       </c>
       <c r="D76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F76" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77">
@@ -34632,7 +34632,7 @@
         <v>825</v>
       </c>
       <c r="D79" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E79" t="n">
         <v>370</v>
@@ -34692,7 +34692,7 @@
         <v>542</v>
       </c>
       <c r="D81" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E81" t="n">
         <v>219</v>
@@ -34725,16 +34725,16 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -34782,7 +34782,7 @@
         <v>825</v>
       </c>
       <c r="D84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="n">
         <v>825</v>
@@ -34812,7 +34812,7 @@
         <v>309</v>
       </c>
       <c r="D85" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85" t="n">
         <v>309</v>
@@ -34932,19 +34932,19 @@
         <v>825</v>
       </c>
       <c r="D89" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -35052,7 +35052,7 @@
         <v>107</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
         <v>100</v>
@@ -35085,16 +35085,16 @@
         <v>109</v>
       </c>
       <c r="E94" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
@@ -35112,19 +35112,19 @@
         <v>309</v>
       </c>
       <c r="D95" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F95" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
@@ -35142,19 +35142,19 @@
         <v>542</v>
       </c>
       <c r="D96" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F96" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
@@ -35445,16 +35445,16 @@
         <v>75</v>
       </c>
       <c r="E106" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F106" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G106" t="n">
         <v>91</v>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -35895,16 +35895,16 @@
         <v>22</v>
       </c>
       <c r="E121" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F121" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G121" t="n">
         <v>91</v>
       </c>
       <c r="H121" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122">
@@ -36012,7 +36012,7 @@
         <v>309</v>
       </c>
       <c r="D125" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E125" t="n">
         <v>241</v>
@@ -36162,7 +36162,7 @@
         <v>309</v>
       </c>
       <c r="D130" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E130" t="n">
         <v>241</v>
@@ -36192,19 +36192,19 @@
         <v>542</v>
       </c>
       <c r="D131" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E131" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F131" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G131" t="n">
         <v>91</v>
       </c>
       <c r="H131" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -38059,12 +38059,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
@@ -38143,7 +38143,7 @@
         <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>189</v>
@@ -38323,7 +38323,7 @@
         <v>203</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -38476,16 +38476,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -38506,16 +38506,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -38593,19 +38593,19 @@
         <v>325</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20">
@@ -38623,19 +38623,19 @@
         <v>555</v>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F20" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21">
@@ -38653,19 +38653,19 @@
         <v>200</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -38683,19 +38683,19 @@
         <v>203</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -38746,16 +38746,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -39223,7 +39223,7 @@
         <v>189</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
         <v>186</v>
@@ -39286,16 +39286,16 @@
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -39343,19 +39343,19 @@
         <v>555</v>
       </c>
       <c r="D44" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -39493,7 +39493,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
@@ -39592,10 +39592,10 @@
         <v>38</v>
       </c>
       <c r="G52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -39616,16 +39616,16 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="n">
         <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -39673,7 +39673,7 @@
         <v>325</v>
       </c>
       <c r="D55" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
         <v>289</v>
@@ -39703,19 +39703,19 @@
         <v>555</v>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E56" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F56" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G56" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H56" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
@@ -39736,16 +39736,16 @@
         <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F57" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" t="n">
         <v>26</v>
       </c>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -39763,19 +39763,19 @@
         <v>203</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F58" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -39823,19 +39823,19 @@
         <v>60</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -39952,10 +39952,10 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -40033,7 +40033,7 @@
         <v>325</v>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E67" t="n">
         <v>287</v>
@@ -40066,16 +40066,16 @@
         <v>35</v>
       </c>
       <c r="E68" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F68" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G68" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H68" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -40126,16 +40126,16 @@
         <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F70" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -40183,7 +40183,7 @@
         <v>60</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
         <v>43</v>
@@ -40393,7 +40393,7 @@
         <v>325</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
         <v>61</v>
@@ -40483,7 +40483,7 @@
         <v>203</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
         <v>30</v>
@@ -40663,7 +40663,7 @@
         <v>189</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
         <v>55</v>
@@ -40993,19 +40993,19 @@
         <v>71</v>
       </c>
       <c r="D99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -41113,7 +41113,7 @@
         <v>325</v>
       </c>
       <c r="D103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" t="n">
         <v>317</v>
@@ -41143,19 +41143,19 @@
         <v>555</v>
       </c>
       <c r="D104" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E104" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F104" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -41173,19 +41173,19 @@
         <v>200</v>
       </c>
       <c r="D105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -41446,16 +41446,16 @@
         <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -41473,7 +41473,7 @@
         <v>325</v>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
         <v>320</v>
@@ -41503,19 +41503,19 @@
         <v>555</v>
       </c>
       <c r="D116" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E116" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -41533,7 +41533,7 @@
         <v>200</v>
       </c>
       <c r="D117" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E117" t="n">
         <v>198</v>
@@ -41563,7 +41563,7 @@
         <v>203</v>
       </c>
       <c r="D118" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" t="n">
         <v>200</v>
@@ -41593,7 +41593,7 @@
         <v>49</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
         <v>46</v>
@@ -41623,7 +41623,7 @@
         <v>60</v>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
         <v>57</v>
@@ -41716,16 +41716,16 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -41746,16 +41746,16 @@
         <v>23</v>
       </c>
       <c r="E124" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F124" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125">
@@ -41833,19 +41833,19 @@
         <v>325</v>
       </c>
       <c r="D127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F127" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128">
@@ -41863,19 +41863,19 @@
         <v>555</v>
       </c>
       <c r="D128" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E128" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F128" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129">
@@ -42103,7 +42103,7 @@
         <v>189</v>
       </c>
       <c r="D136" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E136" t="n">
         <v>142</v>
@@ -42163,7 +42163,7 @@
         <v>77</v>
       </c>
       <c r="D138" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E138" t="n">
         <v>70</v>
@@ -42193,19 +42193,19 @@
         <v>325</v>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E139" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F139" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
@@ -42226,16 +42226,16 @@
         <v>102</v>
       </c>
       <c r="E140" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F140" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141">
@@ -42253,7 +42253,7 @@
         <v>200</v>
       </c>
       <c r="D141" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E141" t="n">
         <v>147</v>
@@ -42283,7 +42283,7 @@
         <v>203</v>
       </c>
       <c r="D142" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E142" t="n">
         <v>152</v>
@@ -42313,7 +42313,7 @@
         <v>49</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
         <v>40</v>
@@ -42553,7 +42553,7 @@
         <v>325</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="n">
         <v>210</v>
@@ -42826,16 +42826,16 @@
         <v>16</v>
       </c>
       <c r="E160" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F160" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161">
@@ -42853,7 +42853,7 @@
         <v>48</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>27</v>
@@ -42883,7 +42883,7 @@
         <v>77</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="n">
         <v>52</v>
@@ -42913,7 +42913,7 @@
         <v>325</v>
       </c>
       <c r="D163" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E163" t="n">
         <v>218</v>
@@ -42943,19 +42943,19 @@
         <v>555</v>
       </c>
       <c r="D164" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E164" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F164" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="165">
@@ -43003,7 +43003,7 @@
         <v>203</v>
       </c>
       <c r="D166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E166" t="n">
         <v>123</v>
@@ -43063,7 +43063,7 @@
         <v>60</v>
       </c>
       <c r="D168" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" t="n">
         <v>29</v>
@@ -43303,19 +43303,19 @@
         <v>555</v>
       </c>
       <c r="D176" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E176" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F176" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177">
@@ -43513,7 +43513,7 @@
         <v>71</v>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
         <v>31</v>
@@ -43633,7 +43633,7 @@
         <v>325</v>
       </c>
       <c r="D187" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E187" t="n">
         <v>191</v>
@@ -43846,16 +43846,16 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -43906,16 +43906,16 @@
         <v>33</v>
       </c>
       <c r="E196" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -44053,7 +44053,7 @@
         <v>200</v>
       </c>
       <c r="D201" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" t="n">
         <v>199</v>
@@ -44143,7 +44143,7 @@
         <v>60</v>
       </c>
       <c r="D204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="n">
         <v>60</v>
@@ -44263,7 +44263,7 @@
         <v>189</v>
       </c>
       <c r="D208" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E208" t="n">
         <v>186</v>
@@ -44413,19 +44413,19 @@
         <v>200</v>
       </c>
       <c r="D213" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E213" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F213" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -44623,7 +44623,7 @@
         <v>189</v>
       </c>
       <c r="D220" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E220" t="n">
         <v>159</v>
@@ -44716,16 +44716,16 @@
         <v>12</v>
       </c>
       <c r="E223" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F223" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224">
@@ -44743,19 +44743,19 @@
         <v>555</v>
       </c>
       <c r="D224" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E224" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F224" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="225">
@@ -44776,16 +44776,16 @@
         <v>30</v>
       </c>
       <c r="E225" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F225" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226">
@@ -44806,16 +44806,16 @@
         <v>30</v>
       </c>
       <c r="E226" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F226" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -44863,19 +44863,19 @@
         <v>60</v>
       </c>
       <c r="D228" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E228" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F228" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
@@ -44896,16 +44896,16 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -45376,16 +45376,16 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -46456,16 +46456,16 @@
         <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F281" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282">
@@ -46783,7 +46783,7 @@
         <v>189</v>
       </c>
       <c r="D292" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E292" t="n">
         <v>52</v>
@@ -47176,16 +47176,16 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -47323,7 +47323,7 @@
         <v>203</v>
       </c>
       <c r="D310" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E310" t="n">
         <v>188</v>
@@ -47383,7 +47383,7 @@
         <v>60</v>
       </c>
       <c r="D312" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E312" t="n">
         <v>58</v>
@@ -51800,12 +51800,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -999</t>
+          <t>Invalid: input missing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Invalid: -998</t>
+          <t>Invalid: output missing</t>
         </is>
       </c>
     </row>
